--- a/results/new_cu_hedac_diffgoal_path/15x15/new_cu_hedac_diffgoal_path_15x15_True_2_500.xlsx
+++ b/results/new_cu_hedac_diffgoal_path/15x15/new_cu_hedac_diffgoal_path_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Experiment_Time</t>
+          <t>Avg_Experiment_Time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Std_Total_Rounds</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Cost</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Eff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Round_Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Agent_Step_Time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Experiment_Time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Obs_Prob</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std_Total_Rounds</t>
         </is>
       </c>
     </row>
@@ -493,28 +518,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>90.764</v>
+        <v>56.326</v>
       </c>
       <c r="D2" t="n">
-        <v>90.764</v>
+        <v>56.326</v>
       </c>
       <c r="E2" t="n">
-        <v>1.89724</v>
+        <v>3.06145044</v>
       </c>
       <c r="F2" t="n">
-        <v>0.12831</v>
+        <v>0.17942226</v>
       </c>
       <c r="G2" t="n">
-        <v>0.12831</v>
+        <v>0.17942226</v>
       </c>
       <c r="H2" t="n">
-        <v>11.45747</v>
+        <v>9.873369720000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.85</v>
+        <v>7.890770083142077</v>
       </c>
       <c r="J2" t="n">
-        <v>12.50025</v>
+        <v>7.890770083142077</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4448968254753483</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.03238795169074209</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.03238795169074209</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.7670348691208346</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +565,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>56.326</v>
+        <v>90.764</v>
       </c>
       <c r="D3" t="n">
-        <v>56.326</v>
+        <v>90.764</v>
       </c>
       <c r="E3" t="n">
-        <v>3.06145</v>
+        <v>1.89724074</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17942</v>
+        <v>0.12831342</v>
       </c>
       <c r="G3" t="n">
-        <v>0.17942</v>
+        <v>0.12831342</v>
       </c>
       <c r="H3" t="n">
-        <v>9.87337</v>
+        <v>11.45746828</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15</v>
+        <v>12.51277119129777</v>
       </c>
       <c r="J3" t="n">
-        <v>7.88288</v>
+        <v>12.51277119129777</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2613756292341876</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01917586704839485</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01917586704839485</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.028636595057762</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +618,37 @@
         <v>56.384</v>
       </c>
       <c r="E4" t="n">
-        <v>3.11549</v>
+        <v>3.11549184</v>
       </c>
       <c r="F4" t="n">
-        <v>0.26138</v>
+        <v>0.26137636</v>
       </c>
       <c r="G4" t="n">
-        <v>0.13069</v>
+        <v>0.13068832</v>
       </c>
       <c r="H4" t="n">
-        <v>3.58765</v>
+        <v>3.58765286</v>
       </c>
       <c r="I4" t="n">
+        <v>5.528534470071933</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.05209670982691</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6254129187627363</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.04850405475633983</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.02425202117432028</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4988782814203945</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.523</v>
       </c>
     </row>
     <row r="5">
@@ -595,22 +665,37 @@
         <v>94.596</v>
       </c>
       <c r="E5" t="n">
-        <v>1.83555</v>
+        <v>1.83554956</v>
       </c>
       <c r="F5" t="n">
-        <v>0.18118</v>
+        <v>0.18118334</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09059</v>
+        <v>0.0905917</v>
       </c>
       <c r="H5" t="n">
-        <v>4.26867</v>
+        <v>4.26867266</v>
       </c>
       <c r="I5" t="n">
+        <v>8.54760006866651</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.6988436320248</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3042159677766882</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.03365826674808688</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01682925519953698</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5337443728023</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.53905</v>
       </c>
     </row>
     <row r="6">
@@ -621,28 +706,43 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>25.214</v>
+        <v>14.708</v>
       </c>
       <c r="D6" t="n">
-        <v>93.258</v>
+        <v>58.784</v>
       </c>
       <c r="E6" t="n">
-        <v>1.86439</v>
+        <v>3.05158964</v>
       </c>
       <c r="F6" t="n">
-        <v>0.23437</v>
+        <v>0.302603</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05859</v>
+        <v>0.07565064000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.445</v>
+        <v>1.0814634</v>
       </c>
       <c r="I6" t="n">
-        <v>0.85</v>
+        <v>3.574954068682054</v>
       </c>
       <c r="J6" t="n">
-        <v>5.08215</v>
+        <v>14.30967776560713</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7588076778170465</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.07525947316852016</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01881495149049232</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2729347769959476</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +753,43 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>14.708</v>
+        <v>25.214</v>
       </c>
       <c r="D7" t="n">
-        <v>58.784</v>
+        <v>93.258</v>
       </c>
       <c r="E7" t="n">
-        <v>3.05159</v>
+        <v>1.86439348</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3026</v>
+        <v>0.234371</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07565</v>
+        <v>0.05859298</v>
       </c>
       <c r="H7" t="n">
-        <v>1.08146</v>
+        <v>1.44500108</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>5.087235391433712</v>
       </c>
       <c r="J7" t="n">
-        <v>3.57138</v>
+        <v>16.07508172623113</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3123801056987501</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.04714704591463768</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.01178696204575786</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2722654843412229</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +806,37 @@
         <v>56.512</v>
       </c>
       <c r="E8" t="n">
-        <v>3.19548</v>
+        <v>3.19547968</v>
       </c>
       <c r="F8" t="n">
-        <v>0.34214</v>
+        <v>0.34213698</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05702</v>
+        <v>0.05702296</v>
       </c>
       <c r="H8" t="n">
-        <v>0.52716</v>
+        <v>0.5271577999999999</v>
       </c>
       <c r="I8" t="n">
+        <v>2.590622831155978</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15.52365368227772</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8016572794298218</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.09577927735277626</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01596313812494248</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1780111688192873</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.58803</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +853,37 @@
         <v>88.392</v>
       </c>
       <c r="E9" t="n">
-        <v>1.96637</v>
+        <v>1.96636592</v>
       </c>
       <c r="F9" t="n">
-        <v>0.25559</v>
+        <v>0.25559048</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0426</v>
+        <v>0.04259843999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.72011</v>
+        <v>0.720108</v>
       </c>
       <c r="I9" t="n">
+        <v>4.034717076049761</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.69483625035848</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3371963218867333</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.05489555714407055</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.009149152394921126</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1813006339595874</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.03068</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +894,43 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13.53</v>
+        <v>6.984</v>
       </c>
       <c r="D10" t="n">
-        <v>83.80800000000001</v>
+        <v>55.722</v>
       </c>
       <c r="E10" t="n">
-        <v>2.09873</v>
+        <v>3.24341424</v>
       </c>
       <c r="F10" t="n">
-        <v>0.24704</v>
+        <v>0.32172954</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03088</v>
+        <v>0.04021635999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.41095</v>
+        <v>0.28002288</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>1.946103449787433</v>
       </c>
       <c r="J10" t="n">
-        <v>3.89783</v>
+        <v>15.59587055462802</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8187663575267718</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.08949062761681192</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01118623490066724</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1115522876622032</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -781,28 +941,43 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>6.984</v>
+        <v>13.53</v>
       </c>
       <c r="D11" t="n">
-        <v>55.722</v>
+        <v>83.80800000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>3.24342</v>
+        <v>2.09872782</v>
       </c>
       <c r="F11" t="n">
-        <v>0.32173</v>
+        <v>0.24704478</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04022</v>
+        <v>0.03088046</v>
       </c>
       <c r="H11" t="n">
-        <v>0.28002</v>
+        <v>0.41095022</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>3.901736420388796</v>
       </c>
       <c r="J11" t="n">
-        <v>1.94416</v>
+        <v>16.74885621076071</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4305364061613236</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.05288329339585787</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.006610008442628742</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1284208122954096</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +994,37 @@
         <v>55.802</v>
       </c>
       <c r="E12" t="n">
-        <v>3.22291</v>
+        <v>3.22291532</v>
       </c>
       <c r="F12" t="n">
-        <v>0.29306</v>
+        <v>0.29306114</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02931</v>
+        <v>0.02930602</v>
       </c>
       <c r="H12" t="n">
-        <v>0.16706</v>
+        <v>0.16705926</v>
       </c>
       <c r="I12" t="n">
+        <v>1.425644037564668</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14.20896143883643</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8125884086726292</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.08753907072334395</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.008753819730800876</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.07737972920757008</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.42422</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +1041,37 @@
         <v>75.244</v>
       </c>
       <c r="E13" t="n">
-        <v>2.33288</v>
+        <v>2.3328834</v>
       </c>
       <c r="F13" t="n">
-        <v>0.23279</v>
+        <v>0.23279148</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02328</v>
+        <v>0.02327926</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25025</v>
+        <v>0.25024616</v>
       </c>
       <c r="I13" t="n">
+        <v>3.355535611266397</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15.03117881848748</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.451108978007441</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.04479983438508968</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.004480113490322801</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.08712085956875308</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.35218</v>
       </c>
     </row>
   </sheetData>

--- a/results/new_cu_hedac_diffgoal_path/15x15/new_cu_hedac_diffgoal_path_15x15_True_2_500.xlsx
+++ b/results/new_cu_hedac_diffgoal_path/15x15/new_cu_hedac_diffgoal_path_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/new_cu_hedac_diffgoal_path/15x15/new_cu_hedac_diffgoal_path_15x15_True_2_500.xlsx
+++ b/results/new_cu_hedac_diffgoal_path/15x15/new_cu_hedac_diffgoal_path_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.17942226</v>
       </c>
       <c r="G2" t="n">
-        <v>0.17942226</v>
+        <v>9.873367259999998</v>
       </c>
       <c r="H2" t="n">
-        <v>9.873369720000001</v>
+        <v>554.20258152</v>
       </c>
       <c r="I2" t="n">
         <v>7.890770083142077</v>
@@ -548,10 +548,10 @@
         <v>0.03238795169074209</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03238795169074209</v>
+        <v>0.7670311963579219</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7670348691208346</v>
+        <v>75.13766751988602</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.12831342</v>
       </c>
       <c r="G3" t="n">
-        <v>0.12831342</v>
+        <v>11.45747308</v>
       </c>
       <c r="H3" t="n">
-        <v>11.45746828</v>
+        <v>1042.4603555</v>
       </c>
       <c r="I3" t="n">
         <v>12.51277119129777</v>
@@ -595,10 +595,10 @@
         <v>0.01917586704839485</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01917586704839485</v>
+        <v>1.028636362809473</v>
       </c>
       <c r="N3" t="n">
-        <v>1.028636595057762</v>
+        <v>187.1265016891786</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.26137636</v>
       </c>
       <c r="G4" t="n">
-        <v>0.13068832</v>
+        <v>3.58765748</v>
       </c>
       <c r="H4" t="n">
-        <v>3.58765286</v>
+        <v>102.26213584</v>
       </c>
       <c r="I4" t="n">
         <v>5.528534470071933</v>
@@ -642,10 +642,10 @@
         <v>0.04850405475633983</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02425202117432028</v>
+        <v>0.4988750752095963</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4988782814203945</v>
+        <v>28.54613897638486</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.18118334</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0905917</v>
+        <v>4.26867462</v>
       </c>
       <c r="H5" t="n">
-        <v>4.26867266</v>
+        <v>207.35744618</v>
       </c>
       <c r="I5" t="n">
         <v>8.54760006866651</v>
@@ -689,10 +689,10 @@
         <v>0.03365826674808688</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01682925519953698</v>
+        <v>0.5337462031227497</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5337443728023</v>
+        <v>51.51781421333257</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.302603</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07565064000000001</v>
+        <v>1.08146138</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0814634</v>
+        <v>16.39288652</v>
       </c>
       <c r="I6" t="n">
         <v>3.574954068682054</v>
@@ -736,10 +736,10 @@
         <v>0.07525947316852016</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01881495149049232</v>
+        <v>0.27293318143559</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2729347769959476</v>
+        <v>7.209824996162254</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.234371</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05859298</v>
+        <v>1.44500538</v>
       </c>
       <c r="H7" t="n">
-        <v>1.44500108</v>
+        <v>37.03972221999999</v>
       </c>
       <c r="I7" t="n">
         <v>5.087235391433712</v>
@@ -783,10 +783,10 @@
         <v>0.04714704591463768</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01178696204575786</v>
+        <v>0.272269591049158</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2722654843412229</v>
+        <v>12.71681812016646</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.34213698</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05702296</v>
+        <v>0.52715958</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5271577999999999</v>
+        <v>5.2137149</v>
       </c>
       <c r="I8" t="n">
         <v>2.590622831155978</v>
@@ -830,10 +830,10 @@
         <v>0.09577927735277626</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01596313812494248</v>
+        <v>0.1780115570982533</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1780111688192873</v>
+        <v>2.983240074602246</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.25559048</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04259843999999999</v>
+        <v>0.72010846</v>
       </c>
       <c r="H9" t="n">
-        <v>0.720108</v>
+        <v>12.82987868</v>
       </c>
       <c r="I9" t="n">
         <v>4.034717076049761</v>
@@ -877,10 +877,10 @@
         <v>0.05489555714407055</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009149152394921126</v>
+        <v>0.1813003426392532</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1813006339595874</v>
+        <v>6.14235946071109</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.32172954</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04021635999999999</v>
+        <v>0.28002424</v>
       </c>
       <c r="H10" t="n">
-        <v>0.28002288</v>
+        <v>2.09416518</v>
       </c>
       <c r="I10" t="n">
         <v>1.946103449787433</v>
@@ -924,10 +924,10 @@
         <v>0.08949062761681192</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01118623490066724</v>
+        <v>0.111553048200163</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1115522876622032</v>
+        <v>1.442618604615973</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.24704478</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03088046</v>
+        <v>0.41094848</v>
       </c>
       <c r="H11" t="n">
-        <v>0.41095022</v>
+        <v>5.934013800000001</v>
       </c>
       <c r="I11" t="n">
         <v>3.901736420388796</v>
@@ -971,10 +971,10 @@
         <v>0.05288329339585787</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006610008442628742</v>
+        <v>0.1284182967695023</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1284208122954096</v>
+        <v>3.862474097052401</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.29306114</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02930602</v>
+        <v>0.16705888</v>
       </c>
       <c r="H12" t="n">
-        <v>0.16705926</v>
+        <v>1.013773</v>
       </c>
       <c r="I12" t="n">
         <v>1.425644037564668</v>
@@ -1018,10 +1018,10 @@
         <v>0.08753907072334395</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008753819730800876</v>
+        <v>0.07737831648251943</v>
       </c>
       <c r="N12" t="n">
-        <v>0.07737972920757008</v>
+        <v>0.7380407141602123</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.23279148</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02327926</v>
+        <v>0.25024638</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25024616</v>
+        <v>2.94975924</v>
       </c>
       <c r="I13" t="n">
         <v>3.355535611266397</v>
@@ -1065,10 +1065,10 @@
         <v>0.04479983438508968</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004480113490322801</v>
+        <v>0.08711888434268329</v>
       </c>
       <c r="N13" t="n">
-        <v>0.08712085956875308</v>
+        <v>2.107001015159887</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>
